--- a/backend/db/data/participante_orden.xlsx
+++ b/backend/db/data/participante_orden.xlsx
@@ -155,7 +155,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -175,7 +175,6 @@
       <color rgb="FF000000"/>
       <name val="Inconsolata"/>
     </font>
-    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -197,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -211,7 +210,6 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -546,7 +544,7 @@
       <c r="D13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="3">
@@ -555,7 +553,7 @@
       <c r="D14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="3">
@@ -564,7 +562,7 @@
       <c r="D15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="3">
@@ -573,7 +571,7 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="3">
@@ -582,7 +580,7 @@
       <c r="D17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="3">
@@ -591,7 +589,7 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="3">
@@ -600,7 +598,7 @@
       <c r="D19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="3">
@@ -609,7 +607,7 @@
       <c r="D20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="3">
@@ -618,7 +616,7 @@
       <c r="D21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="3">
@@ -627,7 +625,7 @@
       <c r="D22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="3">
@@ -636,7 +634,7 @@
       <c r="D23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="3">
@@ -645,7 +643,7 @@
       <c r="D24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="3">
@@ -654,7 +652,7 @@
       <c r="D25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="3">
@@ -663,7 +661,7 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="3">
@@ -672,7 +670,7 @@
       <c r="D27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="3">
@@ -681,7 +679,7 @@
       <c r="D28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="3">
@@ -690,7 +688,7 @@
       <c r="D29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="3">
@@ -699,7 +697,7 @@
       <c r="D30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="3">
@@ -708,7 +706,7 @@
       <c r="D31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="3">
@@ -717,7 +715,7 @@
       <c r="D32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="3">
@@ -726,7 +724,7 @@
       <c r="D33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="3">
@@ -735,7 +733,7 @@
       <c r="D34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="3">
@@ -744,7 +742,7 @@
       <c r="D35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="3">
@@ -753,7 +751,7 @@
       <c r="D36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="3">
@@ -762,7 +760,7 @@
       <c r="D37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="3">
@@ -771,7 +769,7 @@
       <c r="D38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="3">
@@ -780,7 +778,7 @@
       <c r="D39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="3">
@@ -789,7 +787,7 @@
       <c r="D40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="3">
@@ -798,7 +796,7 @@
       <c r="D41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="3">
@@ -807,7 +805,7 @@
       <c r="D42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="3">
@@ -816,7 +814,7 @@
       <c r="D43" s="2"/>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="3">
@@ -825,7 +823,7 @@
       <c r="D44" s="2"/>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="3">
@@ -834,1114 +832,1114 @@
       <c r="D45" s="2"/>
     </row>
     <row r="46">
-      <c r="A46" s="5"/>
+      <c r="A46" s="2"/>
       <c r="D46" s="2"/>
     </row>
     <row r="47">
-      <c r="A47" s="5"/>
+      <c r="A47" s="2"/>
       <c r="D47" s="2"/>
     </row>
     <row r="48">
-      <c r="A48" s="5"/>
+      <c r="A48" s="2"/>
       <c r="D48" s="2"/>
     </row>
     <row r="49">
-      <c r="A49" s="5"/>
+      <c r="A49" s="2"/>
       <c r="D49" s="2"/>
     </row>
     <row r="50">
-      <c r="A50" s="5"/>
+      <c r="A50" s="2"/>
       <c r="D50" s="2"/>
     </row>
     <row r="51">
-      <c r="A51" s="5"/>
+      <c r="A51" s="2"/>
       <c r="D51" s="2"/>
     </row>
     <row r="52">
-      <c r="A52" s="5"/>
+      <c r="A52" s="2"/>
       <c r="D52" s="2"/>
     </row>
     <row r="53">
-      <c r="A53" s="5"/>
+      <c r="A53" s="2"/>
       <c r="D53" s="2"/>
     </row>
     <row r="54">
-      <c r="A54" s="5"/>
+      <c r="A54" s="2"/>
       <c r="D54" s="2"/>
     </row>
     <row r="55">
-      <c r="A55" s="5"/>
+      <c r="A55" s="2"/>
       <c r="D55" s="2"/>
     </row>
     <row r="56">
-      <c r="A56" s="5"/>
+      <c r="A56" s="2"/>
       <c r="D56" s="2"/>
     </row>
     <row r="57">
-      <c r="A57" s="5"/>
+      <c r="A57" s="2"/>
       <c r="D57" s="2"/>
     </row>
     <row r="58">
-      <c r="A58" s="5"/>
+      <c r="A58" s="2"/>
       <c r="D58" s="2"/>
     </row>
     <row r="59">
-      <c r="A59" s="5"/>
+      <c r="A59" s="2"/>
       <c r="D59" s="2"/>
     </row>
     <row r="60">
-      <c r="A60" s="5"/>
+      <c r="A60" s="2"/>
       <c r="D60" s="2"/>
     </row>
     <row r="61">
-      <c r="A61" s="5"/>
+      <c r="A61" s="2"/>
       <c r="D61" s="2"/>
     </row>
     <row r="62">
-      <c r="A62" s="5"/>
+      <c r="A62" s="2"/>
       <c r="D62" s="2"/>
     </row>
     <row r="63">
-      <c r="A63" s="5"/>
+      <c r="A63" s="2"/>
       <c r="D63" s="2"/>
     </row>
     <row r="64">
-      <c r="A64" s="5"/>
+      <c r="A64" s="2"/>
       <c r="D64" s="2"/>
     </row>
     <row r="65">
-      <c r="A65" s="5"/>
+      <c r="A65" s="2"/>
       <c r="D65" s="2"/>
     </row>
     <row r="66">
-      <c r="A66" s="5"/>
+      <c r="A66" s="2"/>
       <c r="D66" s="2"/>
     </row>
     <row r="67">
-      <c r="A67" s="5"/>
+      <c r="A67" s="2"/>
       <c r="D67" s="2"/>
     </row>
     <row r="68">
-      <c r="A68" s="5"/>
+      <c r="A68" s="2"/>
       <c r="D68" s="2"/>
     </row>
     <row r="69">
-      <c r="A69" s="5"/>
+      <c r="A69" s="2"/>
       <c r="D69" s="2"/>
     </row>
     <row r="70">
-      <c r="A70" s="5"/>
+      <c r="A70" s="2"/>
       <c r="D70" s="2"/>
     </row>
     <row r="71">
-      <c r="A71" s="5"/>
+      <c r="A71" s="2"/>
       <c r="D71" s="2"/>
     </row>
     <row r="72">
-      <c r="A72" s="5"/>
+      <c r="A72" s="2"/>
       <c r="D72" s="2"/>
     </row>
     <row r="73">
-      <c r="A73" s="5"/>
+      <c r="A73" s="2"/>
       <c r="D73" s="2"/>
     </row>
     <row r="74">
-      <c r="A74" s="5"/>
+      <c r="A74" s="2"/>
       <c r="D74" s="2"/>
     </row>
     <row r="75">
-      <c r="A75" s="5"/>
+      <c r="A75" s="2"/>
       <c r="D75" s="2"/>
     </row>
     <row r="76">
-      <c r="A76" s="5"/>
+      <c r="A76" s="2"/>
       <c r="D76" s="2"/>
     </row>
     <row r="77">
-      <c r="A77" s="5"/>
+      <c r="A77" s="2"/>
       <c r="D77" s="2"/>
     </row>
     <row r="78">
-      <c r="A78" s="5"/>
+      <c r="A78" s="2"/>
       <c r="D78" s="2"/>
     </row>
     <row r="79">
-      <c r="A79" s="5"/>
+      <c r="A79" s="2"/>
       <c r="D79" s="2"/>
     </row>
     <row r="80">
-      <c r="A80" s="5"/>
+      <c r="A80" s="2"/>
       <c r="D80" s="2"/>
     </row>
     <row r="81">
-      <c r="A81" s="5"/>
+      <c r="A81" s="2"/>
       <c r="D81" s="2"/>
     </row>
     <row r="82">
-      <c r="A82" s="5"/>
+      <c r="A82" s="2"/>
       <c r="D82" s="2"/>
     </row>
     <row r="83">
-      <c r="A83" s="5"/>
+      <c r="A83" s="2"/>
       <c r="D83" s="2"/>
     </row>
     <row r="84">
-      <c r="A84" s="5"/>
+      <c r="A84" s="2"/>
       <c r="D84" s="2"/>
     </row>
     <row r="85">
-      <c r="A85" s="5"/>
+      <c r="A85" s="2"/>
       <c r="D85" s="2"/>
     </row>
     <row r="86">
-      <c r="A86" s="5"/>
+      <c r="A86" s="2"/>
       <c r="D86" s="2"/>
     </row>
     <row r="87">
-      <c r="A87" s="5"/>
+      <c r="A87" s="2"/>
       <c r="D87" s="2"/>
     </row>
     <row r="88">
-      <c r="A88" s="5"/>
+      <c r="A88" s="2"/>
       <c r="D88" s="2"/>
     </row>
     <row r="89">
-      <c r="A89" s="5"/>
+      <c r="A89" s="2"/>
       <c r="D89" s="2"/>
     </row>
     <row r="90">
-      <c r="A90" s="5"/>
+      <c r="A90" s="2"/>
       <c r="D90" s="2"/>
     </row>
     <row r="91">
-      <c r="A91" s="5"/>
+      <c r="A91" s="2"/>
       <c r="D91" s="2"/>
     </row>
     <row r="92">
-      <c r="A92" s="5"/>
+      <c r="A92" s="2"/>
       <c r="D92" s="2"/>
     </row>
     <row r="93">
-      <c r="A93" s="5"/>
+      <c r="A93" s="2"/>
       <c r="D93" s="2"/>
     </row>
     <row r="94">
-      <c r="A94" s="5"/>
+      <c r="A94" s="2"/>
       <c r="D94" s="2"/>
     </row>
     <row r="95">
-      <c r="A95" s="5"/>
+      <c r="A95" s="2"/>
       <c r="D95" s="2"/>
     </row>
     <row r="96">
-      <c r="A96" s="5"/>
+      <c r="A96" s="2"/>
       <c r="D96" s="2"/>
     </row>
     <row r="97">
-      <c r="A97" s="5"/>
+      <c r="A97" s="2"/>
       <c r="D97" s="2"/>
     </row>
     <row r="98">
-      <c r="A98" s="5"/>
+      <c r="A98" s="2"/>
       <c r="D98" s="2"/>
     </row>
     <row r="99">
-      <c r="A99" s="5"/>
+      <c r="A99" s="2"/>
       <c r="D99" s="2"/>
     </row>
     <row r="100">
-      <c r="A100" s="5"/>
+      <c r="A100" s="2"/>
       <c r="D100" s="2"/>
     </row>
     <row r="101">
-      <c r="A101" s="5"/>
+      <c r="A101" s="2"/>
       <c r="D101" s="2"/>
     </row>
     <row r="102">
-      <c r="A102" s="5"/>
+      <c r="A102" s="2"/>
       <c r="D102" s="2"/>
     </row>
     <row r="103">
-      <c r="A103" s="5"/>
+      <c r="A103" s="2"/>
       <c r="D103" s="2"/>
     </row>
     <row r="104">
-      <c r="A104" s="5"/>
+      <c r="A104" s="2"/>
       <c r="D104" s="2"/>
     </row>
     <row r="105">
-      <c r="A105" s="5"/>
+      <c r="A105" s="2"/>
       <c r="D105" s="2"/>
     </row>
     <row r="106">
-      <c r="A106" s="5"/>
+      <c r="A106" s="2"/>
       <c r="D106" s="2"/>
     </row>
     <row r="107">
-      <c r="A107" s="5"/>
+      <c r="A107" s="2"/>
       <c r="D107" s="2"/>
     </row>
     <row r="108">
-      <c r="A108" s="5"/>
+      <c r="A108" s="2"/>
       <c r="D108" s="2"/>
     </row>
     <row r="109">
-      <c r="A109" s="5"/>
+      <c r="A109" s="2"/>
       <c r="D109" s="2"/>
     </row>
     <row r="110">
-      <c r="A110" s="5"/>
+      <c r="A110" s="2"/>
       <c r="D110" s="2"/>
     </row>
     <row r="111">
-      <c r="A111" s="5"/>
+      <c r="A111" s="2"/>
       <c r="D111" s="2"/>
     </row>
     <row r="112">
-      <c r="A112" s="5"/>
+      <c r="A112" s="2"/>
       <c r="D112" s="2"/>
     </row>
     <row r="113">
-      <c r="A113" s="5"/>
+      <c r="A113" s="2"/>
       <c r="D113" s="2"/>
     </row>
     <row r="114">
-      <c r="A114" s="5"/>
+      <c r="A114" s="2"/>
       <c r="D114" s="2"/>
     </row>
     <row r="115">
-      <c r="A115" s="5"/>
+      <c r="A115" s="2"/>
       <c r="D115" s="2"/>
     </row>
     <row r="116">
-      <c r="A116" s="5"/>
+      <c r="A116" s="2"/>
       <c r="D116" s="2"/>
     </row>
     <row r="117">
-      <c r="A117" s="5"/>
+      <c r="A117" s="2"/>
       <c r="D117" s="2"/>
     </row>
     <row r="118">
-      <c r="A118" s="5"/>
+      <c r="A118" s="2"/>
       <c r="D118" s="2"/>
     </row>
     <row r="119">
-      <c r="A119" s="5"/>
+      <c r="A119" s="2"/>
       <c r="D119" s="2"/>
     </row>
     <row r="120">
-      <c r="A120" s="5"/>
+      <c r="A120" s="2"/>
       <c r="D120" s="2"/>
     </row>
     <row r="121">
-      <c r="A121" s="5"/>
+      <c r="A121" s="2"/>
       <c r="D121" s="2"/>
     </row>
     <row r="122">
-      <c r="A122" s="5"/>
+      <c r="A122" s="2"/>
       <c r="D122" s="2"/>
     </row>
     <row r="123">
-      <c r="A123" s="5"/>
+      <c r="A123" s="2"/>
       <c r="D123" s="2"/>
     </row>
     <row r="124">
-      <c r="A124" s="5"/>
+      <c r="A124" s="2"/>
     </row>
     <row r="125">
-      <c r="A125" s="5"/>
+      <c r="A125" s="2"/>
     </row>
     <row r="126">
-      <c r="A126" s="5"/>
+      <c r="A126" s="2"/>
     </row>
     <row r="127">
-      <c r="A127" s="5"/>
+      <c r="A127" s="2"/>
     </row>
     <row r="128">
-      <c r="A128" s="5"/>
+      <c r="A128" s="2"/>
     </row>
     <row r="129">
-      <c r="A129" s="5"/>
+      <c r="A129" s="2"/>
     </row>
     <row r="130">
-      <c r="A130" s="5"/>
+      <c r="A130" s="2"/>
     </row>
     <row r="131">
-      <c r="A131" s="5"/>
+      <c r="A131" s="2"/>
     </row>
     <row r="132">
-      <c r="A132" s="5"/>
+      <c r="A132" s="2"/>
     </row>
     <row r="133">
-      <c r="A133" s="5"/>
+      <c r="A133" s="2"/>
     </row>
     <row r="134">
-      <c r="A134" s="5"/>
+      <c r="A134" s="2"/>
     </row>
     <row r="135">
-      <c r="A135" s="5"/>
+      <c r="A135" s="2"/>
     </row>
     <row r="136">
-      <c r="A136" s="5"/>
+      <c r="A136" s="2"/>
     </row>
     <row r="137">
-      <c r="A137" s="5"/>
+      <c r="A137" s="2"/>
     </row>
     <row r="138">
-      <c r="A138" s="5"/>
+      <c r="A138" s="2"/>
     </row>
     <row r="139">
-      <c r="A139" s="5"/>
+      <c r="A139" s="2"/>
     </row>
     <row r="140">
-      <c r="A140" s="5"/>
+      <c r="A140" s="2"/>
     </row>
     <row r="141">
-      <c r="A141" s="5"/>
+      <c r="A141" s="2"/>
     </row>
     <row r="142">
-      <c r="A142" s="5"/>
+      <c r="A142" s="2"/>
     </row>
     <row r="143">
-      <c r="A143" s="5"/>
+      <c r="A143" s="2"/>
     </row>
     <row r="144">
-      <c r="A144" s="5"/>
+      <c r="A144" s="2"/>
     </row>
     <row r="145">
-      <c r="A145" s="5"/>
+      <c r="A145" s="2"/>
     </row>
     <row r="146">
-      <c r="A146" s="5"/>
+      <c r="A146" s="2"/>
     </row>
     <row r="147">
-      <c r="A147" s="5"/>
+      <c r="A147" s="2"/>
     </row>
     <row r="148">
-      <c r="A148" s="5"/>
+      <c r="A148" s="2"/>
     </row>
     <row r="149">
-      <c r="A149" s="5"/>
+      <c r="A149" s="2"/>
     </row>
     <row r="150">
-      <c r="A150" s="5"/>
+      <c r="A150" s="2"/>
     </row>
     <row r="151">
-      <c r="A151" s="5"/>
+      <c r="A151" s="2"/>
     </row>
     <row r="152">
-      <c r="A152" s="5"/>
+      <c r="A152" s="2"/>
     </row>
     <row r="153">
-      <c r="A153" s="5"/>
+      <c r="A153" s="2"/>
     </row>
     <row r="154">
-      <c r="A154" s="5"/>
+      <c r="A154" s="2"/>
     </row>
     <row r="155">
-      <c r="A155" s="5"/>
+      <c r="A155" s="2"/>
     </row>
     <row r="156">
-      <c r="A156" s="5"/>
+      <c r="A156" s="2"/>
     </row>
     <row r="157">
-      <c r="A157" s="5"/>
+      <c r="A157" s="2"/>
     </row>
     <row r="158">
-      <c r="A158" s="5"/>
+      <c r="A158" s="2"/>
     </row>
     <row r="159">
-      <c r="A159" s="5"/>
+      <c r="A159" s="2"/>
     </row>
     <row r="160">
-      <c r="A160" s="5"/>
+      <c r="A160" s="2"/>
     </row>
     <row r="161">
-      <c r="A161" s="5"/>
+      <c r="A161" s="2"/>
     </row>
     <row r="162">
-      <c r="A162" s="5"/>
+      <c r="A162" s="2"/>
     </row>
     <row r="163">
-      <c r="A163" s="5"/>
+      <c r="A163" s="2"/>
     </row>
     <row r="164">
-      <c r="A164" s="5"/>
+      <c r="A164" s="2"/>
     </row>
     <row r="165">
-      <c r="A165" s="5"/>
+      <c r="A165" s="2"/>
     </row>
     <row r="166">
-      <c r="A166" s="5"/>
+      <c r="A166" s="2"/>
     </row>
     <row r="167">
-      <c r="A167" s="5"/>
+      <c r="A167" s="2"/>
     </row>
     <row r="168">
-      <c r="A168" s="5"/>
+      <c r="A168" s="2"/>
     </row>
     <row r="169">
-      <c r="A169" s="5"/>
+      <c r="A169" s="2"/>
     </row>
     <row r="170">
-      <c r="A170" s="5"/>
+      <c r="A170" s="2"/>
     </row>
     <row r="171">
-      <c r="A171" s="5"/>
+      <c r="A171" s="2"/>
     </row>
     <row r="172">
-      <c r="A172" s="5"/>
+      <c r="A172" s="2"/>
     </row>
     <row r="173">
-      <c r="A173" s="5"/>
+      <c r="A173" s="2"/>
     </row>
     <row r="174">
-      <c r="A174" s="5"/>
+      <c r="A174" s="2"/>
     </row>
     <row r="175">
-      <c r="A175" s="5"/>
+      <c r="A175" s="2"/>
     </row>
     <row r="176">
-      <c r="A176" s="5"/>
+      <c r="A176" s="2"/>
     </row>
     <row r="177">
-      <c r="A177" s="5"/>
+      <c r="A177" s="2"/>
     </row>
     <row r="178">
-      <c r="A178" s="5"/>
+      <c r="A178" s="2"/>
     </row>
     <row r="179">
-      <c r="A179" s="5"/>
+      <c r="A179" s="2"/>
     </row>
     <row r="180">
-      <c r="A180" s="5"/>
+      <c r="A180" s="2"/>
     </row>
     <row r="181">
-      <c r="A181" s="5"/>
+      <c r="A181" s="2"/>
     </row>
     <row r="182">
-      <c r="A182" s="5"/>
+      <c r="A182" s="2"/>
     </row>
     <row r="183">
-      <c r="A183" s="5"/>
+      <c r="A183" s="2"/>
     </row>
     <row r="184">
-      <c r="A184" s="5"/>
+      <c r="A184" s="2"/>
     </row>
     <row r="185">
-      <c r="A185" s="5"/>
+      <c r="A185" s="2"/>
     </row>
     <row r="186">
-      <c r="A186" s="5"/>
+      <c r="A186" s="2"/>
     </row>
     <row r="187">
-      <c r="A187" s="5"/>
+      <c r="A187" s="2"/>
     </row>
     <row r="188">
-      <c r="A188" s="5"/>
+      <c r="A188" s="2"/>
     </row>
     <row r="189">
-      <c r="A189" s="5"/>
+      <c r="A189" s="2"/>
     </row>
     <row r="190">
-      <c r="A190" s="5"/>
+      <c r="A190" s="2"/>
     </row>
     <row r="191">
-      <c r="A191" s="5"/>
+      <c r="A191" s="2"/>
     </row>
     <row r="192">
-      <c r="A192" s="5"/>
+      <c r="A192" s="2"/>
     </row>
     <row r="193">
-      <c r="A193" s="5"/>
+      <c r="A193" s="2"/>
     </row>
     <row r="194">
-      <c r="A194" s="5"/>
+      <c r="A194" s="2"/>
     </row>
     <row r="195">
-      <c r="A195" s="5"/>
+      <c r="A195" s="2"/>
     </row>
     <row r="196">
-      <c r="A196" s="5"/>
+      <c r="A196" s="2"/>
     </row>
     <row r="197">
-      <c r="A197" s="5"/>
+      <c r="A197" s="2"/>
     </row>
     <row r="198">
-      <c r="A198" s="5"/>
+      <c r="A198" s="2"/>
     </row>
     <row r="199">
-      <c r="A199" s="5"/>
+      <c r="A199" s="2"/>
     </row>
     <row r="200">
-      <c r="A200" s="5"/>
+      <c r="A200" s="2"/>
     </row>
     <row r="201">
-      <c r="A201" s="5"/>
+      <c r="A201" s="2"/>
     </row>
     <row r="202">
-      <c r="A202" s="5"/>
+      <c r="A202" s="2"/>
     </row>
     <row r="203">
-      <c r="A203" s="5"/>
+      <c r="A203" s="2"/>
     </row>
     <row r="204">
-      <c r="A204" s="5"/>
+      <c r="A204" s="2"/>
     </row>
     <row r="205">
-      <c r="A205" s="5"/>
+      <c r="A205" s="2"/>
     </row>
     <row r="206">
-      <c r="A206" s="5"/>
+      <c r="A206" s="2"/>
     </row>
     <row r="207">
-      <c r="A207" s="5"/>
+      <c r="A207" s="2"/>
     </row>
     <row r="208">
-      <c r="A208" s="5"/>
+      <c r="A208" s="2"/>
     </row>
     <row r="209">
-      <c r="A209" s="5"/>
+      <c r="A209" s="2"/>
     </row>
     <row r="210">
-      <c r="A210" s="5"/>
+      <c r="A210" s="2"/>
     </row>
     <row r="211">
-      <c r="A211" s="5"/>
+      <c r="A211" s="2"/>
     </row>
     <row r="212">
-      <c r="A212" s="5"/>
+      <c r="A212" s="2"/>
     </row>
     <row r="213">
-      <c r="A213" s="5"/>
+      <c r="A213" s="2"/>
     </row>
     <row r="214">
-      <c r="A214" s="5"/>
+      <c r="A214" s="2"/>
     </row>
     <row r="215">
-      <c r="A215" s="5"/>
+      <c r="A215" s="2"/>
     </row>
     <row r="216">
-      <c r="A216" s="5"/>
+      <c r="A216" s="2"/>
     </row>
     <row r="217">
-      <c r="A217" s="5"/>
+      <c r="A217" s="2"/>
     </row>
     <row r="218">
-      <c r="A218" s="5"/>
+      <c r="A218" s="2"/>
     </row>
     <row r="219">
-      <c r="A219" s="5"/>
+      <c r="A219" s="2"/>
     </row>
     <row r="220">
-      <c r="A220" s="5"/>
+      <c r="A220" s="2"/>
     </row>
     <row r="221">
-      <c r="A221" s="5"/>
+      <c r="A221" s="2"/>
     </row>
     <row r="222">
-      <c r="A222" s="5"/>
+      <c r="A222" s="2"/>
     </row>
     <row r="223">
-      <c r="A223" s="5"/>
+      <c r="A223" s="2"/>
     </row>
     <row r="224">
-      <c r="A224" s="5"/>
+      <c r="A224" s="2"/>
     </row>
     <row r="225">
-      <c r="A225" s="5"/>
+      <c r="A225" s="2"/>
     </row>
     <row r="226">
-      <c r="A226" s="5"/>
+      <c r="A226" s="2"/>
     </row>
     <row r="227">
-      <c r="A227" s="5"/>
+      <c r="A227" s="2"/>
     </row>
     <row r="228">
-      <c r="A228" s="5"/>
+      <c r="A228" s="2"/>
     </row>
     <row r="229">
-      <c r="A229" s="5"/>
+      <c r="A229" s="2"/>
     </row>
     <row r="230">
-      <c r="A230" s="5"/>
+      <c r="A230" s="2"/>
     </row>
     <row r="231">
-      <c r="A231" s="5"/>
+      <c r="A231" s="2"/>
     </row>
     <row r="232">
-      <c r="A232" s="5"/>
+      <c r="A232" s="2"/>
     </row>
     <row r="233">
-      <c r="A233" s="5"/>
+      <c r="A233" s="2"/>
     </row>
     <row r="234">
-      <c r="A234" s="5"/>
+      <c r="A234" s="2"/>
     </row>
     <row r="235">
-      <c r="A235" s="5"/>
+      <c r="A235" s="2"/>
     </row>
     <row r="236">
-      <c r="A236" s="5"/>
+      <c r="A236" s="2"/>
     </row>
     <row r="237">
-      <c r="A237" s="5"/>
+      <c r="A237" s="2"/>
     </row>
     <row r="238">
-      <c r="A238" s="5"/>
+      <c r="A238" s="2"/>
     </row>
     <row r="239">
-      <c r="A239" s="5"/>
+      <c r="A239" s="2"/>
     </row>
     <row r="240">
-      <c r="A240" s="5"/>
+      <c r="A240" s="2"/>
     </row>
     <row r="241">
-      <c r="A241" s="5"/>
+      <c r="A241" s="2"/>
     </row>
     <row r="242">
-      <c r="A242" s="5"/>
+      <c r="A242" s="2"/>
     </row>
     <row r="243">
-      <c r="A243" s="5"/>
+      <c r="A243" s="2"/>
     </row>
     <row r="244">
-      <c r="A244" s="5"/>
+      <c r="A244" s="2"/>
     </row>
     <row r="245">
-      <c r="A245" s="5"/>
+      <c r="A245" s="2"/>
     </row>
     <row r="246">
-      <c r="A246" s="5"/>
+      <c r="A246" s="2"/>
     </row>
     <row r="247">
-      <c r="A247" s="5"/>
+      <c r="A247" s="2"/>
     </row>
     <row r="248">
-      <c r="A248" s="5"/>
+      <c r="A248" s="2"/>
     </row>
     <row r="249">
-      <c r="A249" s="5"/>
+      <c r="A249" s="2"/>
     </row>
     <row r="250">
-      <c r="A250" s="5"/>
+      <c r="A250" s="2"/>
     </row>
     <row r="251">
-      <c r="A251" s="5"/>
+      <c r="A251" s="2"/>
     </row>
     <row r="252">
-      <c r="A252" s="5"/>
+      <c r="A252" s="2"/>
     </row>
     <row r="253">
-      <c r="A253" s="5"/>
+      <c r="A253" s="2"/>
     </row>
     <row r="254">
-      <c r="A254" s="5"/>
+      <c r="A254" s="2"/>
     </row>
     <row r="255">
-      <c r="A255" s="5"/>
+      <c r="A255" s="2"/>
     </row>
     <row r="256">
-      <c r="A256" s="5"/>
+      <c r="A256" s="2"/>
     </row>
     <row r="257">
-      <c r="A257" s="5"/>
+      <c r="A257" s="2"/>
     </row>
     <row r="258">
-      <c r="A258" s="5"/>
+      <c r="A258" s="2"/>
     </row>
     <row r="259">
-      <c r="A259" s="5"/>
+      <c r="A259" s="2"/>
     </row>
     <row r="260">
-      <c r="A260" s="5"/>
+      <c r="A260" s="2"/>
     </row>
     <row r="261">
-      <c r="A261" s="5"/>
+      <c r="A261" s="2"/>
     </row>
     <row r="262">
-      <c r="A262" s="5"/>
+      <c r="A262" s="2"/>
     </row>
     <row r="263">
-      <c r="A263" s="5"/>
+      <c r="A263" s="2"/>
     </row>
     <row r="264">
-      <c r="A264" s="5"/>
+      <c r="A264" s="2"/>
     </row>
     <row r="265">
-      <c r="A265" s="5"/>
+      <c r="A265" s="2"/>
     </row>
     <row r="266">
-      <c r="A266" s="5"/>
+      <c r="A266" s="2"/>
     </row>
     <row r="267">
-      <c r="A267" s="5"/>
+      <c r="A267" s="2"/>
     </row>
     <row r="268">
-      <c r="A268" s="5"/>
+      <c r="A268" s="2"/>
     </row>
     <row r="269">
-      <c r="A269" s="5"/>
+      <c r="A269" s="2"/>
     </row>
     <row r="270">
-      <c r="A270" s="5"/>
+      <c r="A270" s="2"/>
     </row>
     <row r="271">
-      <c r="A271" s="5"/>
+      <c r="A271" s="2"/>
     </row>
     <row r="272">
-      <c r="A272" s="5"/>
+      <c r="A272" s="2"/>
     </row>
     <row r="273">
-      <c r="A273" s="5"/>
+      <c r="A273" s="2"/>
     </row>
     <row r="274">
-      <c r="A274" s="5"/>
+      <c r="A274" s="2"/>
     </row>
     <row r="275">
-      <c r="A275" s="5"/>
+      <c r="A275" s="2"/>
     </row>
     <row r="276">
-      <c r="A276" s="5"/>
+      <c r="A276" s="2"/>
     </row>
     <row r="277">
-      <c r="A277" s="5"/>
+      <c r="A277" s="2"/>
     </row>
     <row r="278">
-      <c r="A278" s="5"/>
+      <c r="A278" s="2"/>
     </row>
     <row r="279">
-      <c r="A279" s="5"/>
+      <c r="A279" s="2"/>
     </row>
     <row r="280">
-      <c r="A280" s="5"/>
+      <c r="A280" s="2"/>
     </row>
     <row r="281">
-      <c r="A281" s="5"/>
+      <c r="A281" s="2"/>
     </row>
     <row r="282">
-      <c r="A282" s="5"/>
+      <c r="A282" s="2"/>
     </row>
     <row r="283">
-      <c r="A283" s="5"/>
+      <c r="A283" s="2"/>
     </row>
     <row r="284">
-      <c r="A284" s="5"/>
+      <c r="A284" s="2"/>
     </row>
     <row r="285">
-      <c r="A285" s="5"/>
+      <c r="A285" s="2"/>
     </row>
     <row r="286">
-      <c r="A286" s="5"/>
+      <c r="A286" s="2"/>
     </row>
     <row r="287">
-      <c r="A287" s="5"/>
+      <c r="A287" s="2"/>
     </row>
     <row r="288">
-      <c r="A288" s="5"/>
+      <c r="A288" s="2"/>
     </row>
     <row r="289">
-      <c r="A289" s="5"/>
+      <c r="A289" s="2"/>
     </row>
     <row r="290">
-      <c r="A290" s="5"/>
+      <c r="A290" s="2"/>
     </row>
     <row r="291">
-      <c r="A291" s="5"/>
+      <c r="A291" s="2"/>
     </row>
     <row r="292">
-      <c r="A292" s="5"/>
+      <c r="A292" s="2"/>
     </row>
     <row r="293">
-      <c r="A293" s="5"/>
+      <c r="A293" s="2"/>
     </row>
     <row r="294">
-      <c r="A294" s="5"/>
+      <c r="A294" s="2"/>
     </row>
     <row r="295">
-      <c r="A295" s="5"/>
+      <c r="A295" s="2"/>
     </row>
     <row r="296">
-      <c r="A296" s="5"/>
+      <c r="A296" s="2"/>
     </row>
     <row r="297">
-      <c r="A297" s="5"/>
+      <c r="A297" s="2"/>
     </row>
     <row r="298">
-      <c r="A298" s="5"/>
+      <c r="A298" s="2"/>
     </row>
     <row r="299">
-      <c r="A299" s="5"/>
+      <c r="A299" s="2"/>
     </row>
     <row r="300">
-      <c r="A300" s="5"/>
+      <c r="A300" s="2"/>
     </row>
     <row r="301">
-      <c r="A301" s="5"/>
+      <c r="A301" s="2"/>
     </row>
     <row r="302">
-      <c r="A302" s="5"/>
+      <c r="A302" s="2"/>
     </row>
     <row r="303">
-      <c r="A303" s="5"/>
+      <c r="A303" s="2"/>
     </row>
     <row r="304">
-      <c r="A304" s="5"/>
+      <c r="A304" s="2"/>
     </row>
     <row r="305">
-      <c r="A305" s="5"/>
+      <c r="A305" s="2"/>
     </row>
     <row r="306">
-      <c r="A306" s="5"/>
+      <c r="A306" s="2"/>
     </row>
     <row r="307">
-      <c r="A307" s="5"/>
+      <c r="A307" s="2"/>
     </row>
     <row r="308">
-      <c r="A308" s="5"/>
+      <c r="A308" s="2"/>
     </row>
     <row r="309">
-      <c r="A309" s="5"/>
+      <c r="A309" s="2"/>
     </row>
     <row r="310">
-      <c r="A310" s="5"/>
+      <c r="A310" s="2"/>
     </row>
     <row r="311">
-      <c r="A311" s="5"/>
+      <c r="A311" s="2"/>
     </row>
     <row r="312">
-      <c r="A312" s="5"/>
+      <c r="A312" s="2"/>
     </row>
     <row r="313">
-      <c r="A313" s="5"/>
+      <c r="A313" s="2"/>
     </row>
     <row r="314">
-      <c r="A314" s="5"/>
+      <c r="A314" s="2"/>
     </row>
     <row r="315">
-      <c r="A315" s="5"/>
+      <c r="A315" s="2"/>
     </row>
     <row r="316">
-      <c r="A316" s="5"/>
+      <c r="A316" s="2"/>
     </row>
     <row r="317">
-      <c r="A317" s="5"/>
+      <c r="A317" s="2"/>
     </row>
     <row r="318">
-      <c r="A318" s="5"/>
+      <c r="A318" s="2"/>
     </row>
     <row r="319">
-      <c r="A319" s="5"/>
+      <c r="A319" s="2"/>
     </row>
     <row r="320">
-      <c r="A320" s="5"/>
+      <c r="A320" s="2"/>
     </row>
     <row r="321">
-      <c r="A321" s="5"/>
+      <c r="A321" s="2"/>
     </row>
     <row r="322">
-      <c r="A322" s="5"/>
+      <c r="A322" s="2"/>
     </row>
     <row r="323">
-      <c r="A323" s="5"/>
+      <c r="A323" s="2"/>
     </row>
     <row r="324">
-      <c r="A324" s="5"/>
+      <c r="A324" s="2"/>
     </row>
     <row r="325">
-      <c r="A325" s="5"/>
+      <c r="A325" s="2"/>
     </row>
     <row r="326">
-      <c r="A326" s="5"/>
+      <c r="A326" s="2"/>
     </row>
     <row r="327">
-      <c r="A327" s="5"/>
+      <c r="A327" s="2"/>
     </row>
     <row r="328">
-      <c r="A328" s="5"/>
+      <c r="A328" s="2"/>
     </row>
     <row r="329">
-      <c r="A329" s="5"/>
+      <c r="A329" s="2"/>
     </row>
     <row r="330">
-      <c r="A330" s="5"/>
+      <c r="A330" s="2"/>
     </row>
     <row r="331">
-      <c r="A331" s="5"/>
+      <c r="A331" s="2"/>
     </row>
     <row r="332">
-      <c r="A332" s="5"/>
+      <c r="A332" s="2"/>
     </row>
     <row r="333">
-      <c r="A333" s="5"/>
+      <c r="A333" s="2"/>
     </row>
     <row r="334">
-      <c r="A334" s="5"/>
+      <c r="A334" s="2"/>
     </row>
     <row r="335">
-      <c r="A335" s="5"/>
+      <c r="A335" s="2"/>
     </row>
     <row r="336">
-      <c r="A336" s="5"/>
+      <c r="A336" s="2"/>
     </row>
     <row r="337">
-      <c r="A337" s="5"/>
+      <c r="A337" s="2"/>
     </row>
     <row r="338">
-      <c r="A338" s="5"/>
+      <c r="A338" s="2"/>
     </row>
     <row r="339">
-      <c r="A339" s="5"/>
+      <c r="A339" s="2"/>
     </row>
     <row r="340">
-      <c r="A340" s="5"/>
+      <c r="A340" s="2"/>
     </row>
     <row r="341">
-      <c r="A341" s="5"/>
+      <c r="A341" s="2"/>
     </row>
     <row r="342">
-      <c r="A342" s="5"/>
+      <c r="A342" s="2"/>
     </row>
     <row r="343">
-      <c r="A343" s="5"/>
+      <c r="A343" s="2"/>
     </row>
     <row r="344">
-      <c r="A344" s="5"/>
+      <c r="A344" s="2"/>
     </row>
     <row r="345">
-      <c r="A345" s="5"/>
+      <c r="A345" s="2"/>
     </row>
     <row r="346">
-      <c r="A346" s="5"/>
+      <c r="A346" s="2"/>
     </row>
     <row r="347">
-      <c r="A347" s="5"/>
+      <c r="A347" s="2"/>
     </row>
     <row r="348">
-      <c r="A348" s="5"/>
+      <c r="A348" s="2"/>
     </row>
     <row r="349">
-      <c r="A349" s="5"/>
+      <c r="A349" s="2"/>
     </row>
     <row r="350">
-      <c r="A350" s="5"/>
+      <c r="A350" s="2"/>
     </row>
     <row r="351">
-      <c r="A351" s="5"/>
+      <c r="A351" s="2"/>
     </row>
     <row r="352">
-      <c r="A352" s="5"/>
+      <c r="A352" s="2"/>
     </row>
     <row r="353">
-      <c r="A353" s="5"/>
+      <c r="A353" s="2"/>
     </row>
     <row r="354">
-      <c r="A354" s="5"/>
+      <c r="A354" s="2"/>
     </row>
     <row r="355">
-      <c r="A355" s="5"/>
+      <c r="A355" s="2"/>
     </row>
     <row r="356">
-      <c r="A356" s="5"/>
+      <c r="A356" s="2"/>
     </row>
     <row r="357">
-      <c r="A357" s="5"/>
+      <c r="A357" s="2"/>
     </row>
     <row r="358">
-      <c r="A358" s="5"/>
+      <c r="A358" s="2"/>
     </row>
     <row r="359">
-      <c r="A359" s="5"/>
+      <c r="A359" s="2"/>
     </row>
     <row r="360">
-      <c r="A360" s="5"/>
+      <c r="A360" s="2"/>
     </row>
     <row r="361">
-      <c r="A361" s="5"/>
+      <c r="A361" s="2"/>
     </row>
     <row r="362">
-      <c r="A362" s="5"/>
+      <c r="A362" s="2"/>
     </row>
     <row r="363">
-      <c r="A363" s="5"/>
+      <c r="A363" s="2"/>
     </row>
     <row r="364">
-      <c r="A364" s="5"/>
+      <c r="A364" s="2"/>
     </row>
     <row r="365">
-      <c r="A365" s="5"/>
+      <c r="A365" s="2"/>
     </row>
     <row r="366">
-      <c r="A366" s="5"/>
+      <c r="A366" s="2"/>
     </row>
     <row r="367">
-      <c r="A367" s="5"/>
+      <c r="A367" s="2"/>
     </row>
     <row r="368">
-      <c r="A368" s="5"/>
+      <c r="A368" s="2"/>
     </row>
     <row r="369">
-      <c r="A369" s="5"/>
+      <c r="A369" s="2"/>
     </row>
     <row r="370">
-      <c r="A370" s="5"/>
+      <c r="A370" s="2"/>
     </row>
     <row r="371">
-      <c r="A371" s="5"/>
+      <c r="A371" s="2"/>
     </row>
     <row r="372">
-      <c r="A372" s="5"/>
+      <c r="A372" s="2"/>
     </row>
     <row r="373">
-      <c r="A373" s="5"/>
+      <c r="A373" s="2"/>
     </row>
     <row r="374">
-      <c r="A374" s="5"/>
+      <c r="A374" s="2"/>
     </row>
     <row r="375">
-      <c r="A375" s="5"/>
+      <c r="A375" s="2"/>
     </row>
     <row r="376">
-      <c r="A376" s="5"/>
+      <c r="A376" s="2"/>
     </row>
     <row r="377">
-      <c r="A377" s="5"/>
+      <c r="A377" s="2"/>
     </row>
     <row r="378">
-      <c r="A378" s="5"/>
+      <c r="A378" s="2"/>
     </row>
     <row r="379">
-      <c r="A379" s="5"/>
+      <c r="A379" s="2"/>
     </row>
     <row r="380">
-      <c r="A380" s="5"/>
+      <c r="A380" s="2"/>
     </row>
     <row r="381">
-      <c r="A381" s="5"/>
+      <c r="A381" s="2"/>
     </row>
     <row r="382">
-      <c r="A382" s="5"/>
+      <c r="A382" s="2"/>
     </row>
     <row r="383">
-      <c r="A383" s="5"/>
+      <c r="A383" s="2"/>
     </row>
     <row r="384">
-      <c r="A384" s="5"/>
+      <c r="A384" s="2"/>
     </row>
     <row r="385">
-      <c r="A385" s="5"/>
+      <c r="A385" s="2"/>
     </row>
     <row r="386">
-      <c r="A386" s="5"/>
+      <c r="A386" s="2"/>
     </row>
     <row r="387">
-      <c r="A387" s="5"/>
+      <c r="A387" s="2"/>
     </row>
     <row r="388">
-      <c r="A388" s="5"/>
+      <c r="A388" s="2"/>
     </row>
     <row r="389">
-      <c r="A389" s="5"/>
+      <c r="A389" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
